--- a/Input/Input - Example.xlsx
+++ b/Input/Input - Example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\PELCA_clone\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F075465A-27F4-47A8-A79A-FB50743A6E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21969863-C14A-4D59-AF5F-D9265BF7E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="2385" yWindow="2220" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="5" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="LCA" sheetId="4" r:id="rId3"/>
     <sheet name="LCIA" sheetId="9" r:id="rId4"/>
     <sheet name="Staircase" sheetId="5" r:id="rId5"/>
-    <sheet name="Faults" sheetId="2" r:id="rId6"/>
+    <sheet name="Faults &amp; Maintenance" sheetId="2" r:id="rId6"/>
     <sheet name="Replac. Matrix" sheetId="6" r:id="rId7"/>
     <sheet name="License (GNU LGPL)" sheetId="10" r:id="rId8"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="289">
   <si>
     <t>Random failure</t>
   </si>
@@ -1020,13 +1020,23 @@
     <t>RU2 DC link capacitor</t>
   </si>
   <si>
-    <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.</t>
-  </si>
-  <si>
     <t>Duration of use of the staircase curve.</t>
   </si>
   <si>
     <t>Analysis</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Modeling of maintenance of RU: choose 'True' if maintenance is considered, or 'False' if it is not considered.</t>
+  </si>
+  <si>
+    <t>Maintenance (year)</t>
+  </si>
+  <si>
+    <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.
+Maintenance (year) defines the maintenance time for each RU.</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1284,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1366,6 +1376,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1699,22 +1716,22 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:O915"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -1722,7 +1739,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1730,7 +1747,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1738,7 +1755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1746,7 +1763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1755,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>226</v>
       </c>
@@ -1763,7 +1780,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1771,7 +1788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1779,12 +1796,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -1825,7 +1842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>42</v>
       </c>
@@ -1868,7 +1885,7 @@
         <v>1.04602785990872</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>44</v>
       </c>
@@ -1911,7 +1928,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>46</v>
       </c>
@@ -1952,7 +1969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>47</v>
       </c>
@@ -1993,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>48</v>
       </c>
@@ -2034,7 +2051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>49</v>
       </c>
@@ -2077,7 +2094,7 @@
         <v>1.0637991288100537</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>49</v>
       </c>
@@ -2120,7 +2137,7 @@
         <v>1.0637991288100537</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>50</v>
       </c>
@@ -2161,7 +2178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
@@ -2202,7 +2219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>54</v>
       </c>
@@ -2245,7 +2262,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
@@ -2288,7 +2305,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>54</v>
       </c>
@@ -2331,7 +2348,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>55</v>
       </c>
@@ -2374,7 +2391,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>56</v>
       </c>
@@ -2417,7 +2434,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>58</v>
       </c>
@@ -2460,7 +2477,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>59</v>
       </c>
@@ -2502,7 +2519,7 @@
       </c>
       <c r="O27" s="10"/>
     </row>
-    <row r="28" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>59</v>
       </c>
@@ -2544,7 +2561,7 @@
       </c>
       <c r="O28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>61</v>
       </c>
@@ -2587,7 +2604,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>61</v>
       </c>
@@ -2630,7 +2647,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>63</v>
       </c>
@@ -2673,7 +2690,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>64</v>
       </c>
@@ -2716,7 +2733,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>64</v>
       </c>
@@ -2759,7 +2776,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>64</v>
       </c>
@@ -2802,7 +2819,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>64</v>
       </c>
@@ -2845,7 +2862,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>66</v>
       </c>
@@ -2888,7 +2905,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>66</v>
       </c>
@@ -2931,7 +2948,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>66</v>
       </c>
@@ -2974,7 +2991,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -3017,7 +3034,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>44</v>
       </c>
@@ -3060,7 +3077,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>46</v>
       </c>
@@ -3101,7 +3118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>47</v>
       </c>
@@ -3142,7 +3159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>48</v>
       </c>
@@ -3183,7 +3200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>49</v>
       </c>
@@ -3226,7 +3243,7 @@
         <v>1.0637991288100537</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>49</v>
       </c>
@@ -3269,7 +3286,7 @@
         <v>1.0637991288100537</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>54</v>
       </c>
@@ -3312,7 +3329,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>54</v>
       </c>
@@ -3355,7 +3372,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>58</v>
       </c>
@@ -3398,7 +3415,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>59</v>
       </c>
@@ -3440,7 +3457,7 @@
       </c>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>59</v>
       </c>
@@ -3482,7 +3499,7 @@
       </c>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>61</v>
       </c>
@@ -3525,7 +3542,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>63</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>64</v>
       </c>
@@ -3611,7 +3628,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>64</v>
       </c>
@@ -3654,7 +3671,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>66</v>
       </c>
@@ -3697,7 +3714,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>66</v>
       </c>
@@ -3740,7 +3757,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -3783,7 +3800,7 @@
         <v>1.2345580787321644</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -3826,7 +3843,7 @@
         <v>1.2539886685866701</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -3869,7 +3886,7 @@
         <v>1.2541963802979099</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -3912,7 +3929,7 @@
         <v>1.2541963802979088</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -3955,7 +3972,7 @@
         <v>1.2541963802979088</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -3997,7 +4014,7 @@
       </c>
       <c r="O62" s="10"/>
     </row>
-    <row r="63" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -4039,7 +4056,7 @@
       </c>
       <c r="O63" s="10"/>
     </row>
-    <row r="64" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -4081,7 +4098,7 @@
       </c>
       <c r="O64" s="10"/>
     </row>
-    <row r="65" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -4124,7 +4141,7 @@
         <v>1.2539886685866701</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -4167,7 +4184,7 @@
         <v>1.2539886685866701</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>49</v>
       </c>
@@ -4210,7 +4227,7 @@
         <v>1.0637991288100537</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>54</v>
       </c>
@@ -4253,7 +4270,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>54</v>
       </c>
@@ -4296,7 +4313,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>54</v>
       </c>
@@ -4339,7 +4356,7 @@
         <v>1.2541963802979088</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>54</v>
       </c>
@@ -4382,7 +4399,7 @@
         <v>1.2345580787321644</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>54</v>
       </c>
@@ -4425,7 +4442,7 @@
         <v>1.2345580787321644</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>54</v>
       </c>
@@ -4468,7 +4485,7 @@
         <v>1.1046170830204174</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>54</v>
       </c>
@@ -4511,7 +4528,7 @@
         <v>1.1053089868304187</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>54</v>
       </c>
@@ -4554,7 +4571,7 @@
         <v>1.2539886685866701</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -4597,7 +4614,7 @@
         <v>1.2541963802979088</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -4640,7 +4657,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -4684,7 +4701,7 @@
       </c>
       <c r="O78" s="10"/>
     </row>
-    <row r="79" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -4728,7 +4745,7 @@
       </c>
       <c r="O79" s="10"/>
     </row>
-    <row r="80" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>56</v>
       </c>
@@ -4772,7 +4789,7 @@
       </c>
       <c r="O80" s="10"/>
     </row>
-    <row r="81" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -4816,7 +4833,7 @@
       </c>
       <c r="O81" s="10"/>
     </row>
-    <row r="82" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -4860,7 +4877,7 @@
       </c>
       <c r="O82" s="10"/>
     </row>
-    <row r="83" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>47</v>
       </c>
@@ -4901,7 +4918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>58</v>
       </c>
@@ -4942,7 +4959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>59</v>
       </c>
@@ -4984,7 +5001,7 @@
       </c>
       <c r="O85" s="10"/>
     </row>
-    <row r="86" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>59</v>
       </c>
@@ -5026,7 +5043,7 @@
       </c>
       <c r="O86" s="10"/>
     </row>
-    <row r="87" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>79</v>
       </c>
@@ -5070,7 +5087,7 @@
       </c>
       <c r="O87" s="10"/>
     </row>
-    <row r="88" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -5112,7 +5129,7 @@
       </c>
       <c r="O88" s="10"/>
     </row>
-    <row r="89" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -5154,7 +5171,7 @@
       </c>
       <c r="O89" s="10"/>
     </row>
-    <row r="90" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>81</v>
       </c>
@@ -5198,7 +5215,7 @@
       </c>
       <c r="O90" s="10"/>
     </row>
-    <row r="91" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -5242,7 +5259,7 @@
       </c>
       <c r="O91" s="10"/>
     </row>
-    <row r="92" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>46</v>
       </c>
@@ -5283,7 +5300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>44</v>
       </c>
@@ -5326,7 +5343,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -5370,7 +5387,7 @@
       </c>
       <c r="O94" s="10"/>
     </row>
-    <row r="95" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -5414,7 +5431,7 @@
       </c>
       <c r="O95" s="10"/>
     </row>
-    <row r="96" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>63</v>
       </c>
@@ -5458,7 +5475,7 @@
       </c>
       <c r="O96" s="10"/>
     </row>
-    <row r="97" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>64</v>
       </c>
@@ -5502,7 +5519,7 @@
       </c>
       <c r="O97" s="10"/>
     </row>
-    <row r="98" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>64</v>
       </c>
@@ -5546,7 +5563,7 @@
       </c>
       <c r="O98" s="10"/>
     </row>
-    <row r="99" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>66</v>
       </c>
@@ -5589,7 +5606,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>66</v>
       </c>
@@ -5632,7 +5649,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>66</v>
       </c>
@@ -5675,7 +5692,7 @@
         <v>1.2539886685866701</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -5718,7 +5735,7 @@
         <v>1.2345580787321644</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -5761,7 +5778,7 @@
         <v>1.2539886685866701</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>84</v>
       </c>
@@ -5804,7 +5821,7 @@
         <v>1.2541963802979088</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>54</v>
       </c>
@@ -5847,7 +5864,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>44</v>
       </c>
@@ -5890,7 +5907,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>63</v>
       </c>
@@ -5933,7 +5950,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>66</v>
       </c>
@@ -5976,7 +5993,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>64</v>
       </c>
@@ -6019,7 +6036,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>58</v>
       </c>
@@ -6062,7 +6079,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>54</v>
       </c>
@@ -6105,7 +6122,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>59</v>
       </c>
@@ -6147,7 +6164,7 @@
       </c>
       <c r="O112" s="10"/>
     </row>
-    <row r="113" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>61</v>
       </c>
@@ -6190,7 +6207,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>66</v>
       </c>
@@ -6233,7 +6250,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>59</v>
       </c>
@@ -6275,7 +6292,7 @@
       </c>
       <c r="O115" s="10"/>
     </row>
-    <row r="116" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>64</v>
       </c>
@@ -6318,7 +6335,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>49</v>
       </c>
@@ -6361,7 +6378,7 @@
         <v>1.0637991288100537</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>47</v>
       </c>
@@ -6402,7 +6419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>46</v>
       </c>
@@ -6443,7 +6460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>54</v>
       </c>
@@ -6486,7 +6503,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>44</v>
       </c>
@@ -6529,7 +6546,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>63</v>
       </c>
@@ -6572,7 +6589,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>66</v>
       </c>
@@ -6615,7 +6632,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>64</v>
       </c>
@@ -6658,7 +6675,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>85</v>
       </c>
@@ -6701,7 +6718,7 @@
         <v>1.1218999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>54</v>
       </c>
@@ -6744,7 +6761,7 @@
         <v>1.1218999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>61</v>
       </c>
@@ -6787,7 +6804,7 @@
         <v>1.1218999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>66</v>
       </c>
@@ -6830,7 +6847,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>86</v>
       </c>
@@ -6871,7 +6888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>64</v>
       </c>
@@ -6914,7 +6931,7 @@
         <v>1.1218734375719384</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>87</v>
       </c>
@@ -6957,7 +6974,7 @@
         <v>1.0637991288100537</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>88</v>
       </c>
@@ -6998,7 +7015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>89</v>
       </c>
@@ -7039,7 +7056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>90</v>
       </c>
@@ -7080,7 +7097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>91</v>
       </c>
@@ -7123,7 +7140,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>92</v>
       </c>
@@ -7166,7 +7183,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>93</v>
       </c>
@@ -7209,7 +7226,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>94</v>
       </c>
@@ -7250,7 +7267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>67</v>
       </c>
@@ -7293,7 +7310,7 @@
         <v>1.2345580787321644</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>95</v>
       </c>
@@ -7336,7 +7353,7 @@
         <v>1.1053089868304187</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>54</v>
       </c>
@@ -7379,7 +7396,7 @@
         <v>1.1053089868304187</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>54</v>
       </c>
@@ -7422,7 +7439,7 @@
         <v>1.1053089868304187</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>54</v>
       </c>
@@ -7465,7 +7482,7 @@
         <v>1.1053089868304187</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>54</v>
       </c>
@@ -7508,7 +7525,7 @@
         <v>1.2275250649631777</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>54</v>
       </c>
@@ -7551,7 +7568,7 @@
         <v>1.1053089868304187</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>54</v>
       </c>
@@ -7594,7 +7611,7 @@
         <v>1.0764349399111492</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>54</v>
       </c>
@@ -7637,7 +7654,7 @@
         <v>1.0764349399111492</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>54</v>
       </c>
@@ -7680,7 +7697,7 @@
         <v>1.0654986309886365</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>54</v>
       </c>
@@ -7723,7 +7740,7 @@
         <v>1.0793097188846854</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>96</v>
       </c>
@@ -7765,7 +7782,7 @@
       </c>
       <c r="O150" s="10"/>
     </row>
-    <row r="151" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>61</v>
       </c>
@@ -7808,7 +7825,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>78</v>
       </c>
@@ -7851,7 +7868,7 @@
         <v>1.2345580787321644</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>78</v>
       </c>
@@ -7894,7 +7911,7 @@
         <v>1.2345580787321644</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>97</v>
       </c>
@@ -7937,7 +7954,7 @@
         <v>1.1053089868304187</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>79</v>
       </c>
@@ -7980,7 +7997,7 @@
         <v>1.1053089868304187</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>80</v>
       </c>
@@ -8022,7 +8039,7 @@
       </c>
       <c r="O156" s="10"/>
     </row>
-    <row r="157" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>98</v>
       </c>
@@ -8065,7 +8082,7 @@
         <v>1.0384707228569481</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>98</v>
       </c>
@@ -8108,7 +8125,7 @@
         <v>1.0384707228569481</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>98</v>
       </c>
@@ -8151,7 +8168,7 @@
         <v>1.0384707228569481</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>61</v>
       </c>
@@ -8194,7 +8211,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>99</v>
       </c>
@@ -8237,7 +8254,7 @@
         <v>1.0384707228569481</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>83</v>
       </c>
@@ -8280,7 +8297,7 @@
         <v>1.2345580787321644</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>83</v>
       </c>
@@ -8323,7 +8340,7 @@
         <v>1.1053089868304187</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>83</v>
       </c>
@@ -8366,7 +8383,7 @@
         <v>1.2345580787321644</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>66</v>
       </c>
@@ -8409,7 +8426,7 @@
         <v>1.1053089868304187</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>66</v>
       </c>
@@ -8452,7 +8469,7 @@
         <v>1.2345580787321644</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="str">
         <f>B3</f>
         <v>RU1 Power module</v>
@@ -8496,8 +8513,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>18</v>
       </c>
@@ -8505,7 +8522,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -8513,7 +8530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -8521,7 +8538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -8529,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>226</v>
       </c>
@@ -8537,7 +8554,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>24</v>
       </c>
@@ -8545,7 +8562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -8553,12 +8570,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>28</v>
       </c>
@@ -8599,7 +8616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>100</v>
       </c>
@@ -8642,7 +8659,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>101</v>
       </c>
@@ -8685,7 +8702,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>49</v>
       </c>
@@ -8728,7 +8745,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>102</v>
       </c>
@@ -8771,7 +8788,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>103</v>
       </c>
@@ -8814,7 +8831,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>104</v>
       </c>
@@ -8857,7 +8874,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>105</v>
       </c>
@@ -8900,7 +8917,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>106</v>
       </c>
@@ -8943,7 +8960,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>107</v>
       </c>
@@ -8986,7 +9003,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>85</v>
       </c>
@@ -9029,7 +9046,7 @@
         <v>1.0460278599087169</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>108</v>
       </c>
@@ -9071,7 +9088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="str">
         <f>B169</f>
         <v>RU2 DC link capacitor</v>
@@ -9115,2182 +9132,2182 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="G192"/>
     </row>
-    <row r="193" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G193"/>
     </row>
-    <row r="194" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G194"/>
     </row>
-    <row r="195" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G195"/>
     </row>
-    <row r="196" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G196"/>
     </row>
-    <row r="197" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G197"/>
     </row>
-    <row r="198" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G198"/>
     </row>
-    <row r="199" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G199"/>
     </row>
-    <row r="200" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G200"/>
     </row>
-    <row r="201" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G201"/>
     </row>
-    <row r="202" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G202"/>
     </row>
-    <row r="203" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G203"/>
     </row>
-    <row r="204" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G204"/>
     </row>
-    <row r="205" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G205"/>
     </row>
-    <row r="206" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G206"/>
     </row>
-    <row r="207" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G207"/>
     </row>
-    <row r="208" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G208"/>
     </row>
-    <row r="209" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G209"/>
     </row>
-    <row r="210" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G210"/>
     </row>
-    <row r="211" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G211"/>
     </row>
-    <row r="212" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G212"/>
     </row>
-    <row r="213" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G213"/>
     </row>
-    <row r="214" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G214"/>
     </row>
-    <row r="215" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G215"/>
     </row>
-    <row r="216" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G216"/>
     </row>
-    <row r="217" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G217"/>
     </row>
-    <row r="218" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G218"/>
     </row>
-    <row r="219" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G219"/>
     </row>
-    <row r="220" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G220"/>
     </row>
-    <row r="221" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G221"/>
     </row>
-    <row r="222" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G222"/>
     </row>
-    <row r="223" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G223"/>
     </row>
-    <row r="224" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G224"/>
     </row>
-    <row r="225" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G225"/>
     </row>
-    <row r="226" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G226"/>
     </row>
-    <row r="227" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G227"/>
     </row>
-    <row r="228" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G228"/>
     </row>
-    <row r="229" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G229"/>
     </row>
-    <row r="230" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G230"/>
     </row>
-    <row r="231" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G231"/>
     </row>
-    <row r="232" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G232"/>
     </row>
-    <row r="233" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G233"/>
     </row>
-    <row r="234" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G234"/>
     </row>
-    <row r="235" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G235"/>
     </row>
-    <row r="236" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G236"/>
     </row>
-    <row r="237" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G237"/>
     </row>
-    <row r="238" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G238"/>
     </row>
-    <row r="239" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G239"/>
     </row>
-    <row r="240" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G240"/>
     </row>
-    <row r="241" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G241"/>
     </row>
-    <row r="242" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G242"/>
     </row>
-    <row r="243" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G243"/>
     </row>
-    <row r="244" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G244"/>
     </row>
-    <row r="245" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G245"/>
     </row>
-    <row r="246" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G246"/>
     </row>
-    <row r="247" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G247"/>
     </row>
-    <row r="248" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G248"/>
     </row>
-    <row r="249" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G249"/>
     </row>
-    <row r="250" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G250"/>
     </row>
-    <row r="251" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G251"/>
     </row>
-    <row r="252" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G252"/>
     </row>
-    <row r="253" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G253"/>
     </row>
-    <row r="254" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G254"/>
     </row>
-    <row r="255" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G255"/>
     </row>
-    <row r="256" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G256"/>
     </row>
-    <row r="257" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G257"/>
     </row>
-    <row r="258" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G258"/>
     </row>
-    <row r="259" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G259"/>
     </row>
-    <row r="260" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G260"/>
     </row>
-    <row r="261" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G261"/>
     </row>
-    <row r="262" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G262"/>
     </row>
-    <row r="263" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G263"/>
     </row>
-    <row r="264" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G264"/>
     </row>
-    <row r="265" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G265"/>
     </row>
-    <row r="266" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G266"/>
     </row>
-    <row r="267" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G267"/>
     </row>
-    <row r="268" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G268"/>
     </row>
-    <row r="269" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G269"/>
     </row>
-    <row r="270" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G270"/>
     </row>
-    <row r="271" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G271"/>
     </row>
-    <row r="272" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G272"/>
     </row>
-    <row r="273" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G273"/>
     </row>
-    <row r="274" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G274"/>
     </row>
-    <row r="275" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G275"/>
     </row>
-    <row r="276" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G276"/>
     </row>
-    <row r="277" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G277"/>
     </row>
-    <row r="278" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G278"/>
     </row>
-    <row r="279" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G279"/>
     </row>
-    <row r="280" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G280"/>
     </row>
-    <row r="281" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G281"/>
     </row>
-    <row r="282" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G282"/>
     </row>
-    <row r="283" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G283"/>
     </row>
-    <row r="284" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G284"/>
     </row>
-    <row r="285" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G285"/>
     </row>
-    <row r="286" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G286"/>
     </row>
-    <row r="287" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G287"/>
     </row>
-    <row r="288" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G288"/>
     </row>
-    <row r="289" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G289"/>
     </row>
-    <row r="290" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G290"/>
     </row>
-    <row r="291" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G291"/>
     </row>
-    <row r="292" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G292"/>
     </row>
-    <row r="293" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G293"/>
     </row>
-    <row r="294" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G294"/>
     </row>
-    <row r="295" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G295"/>
     </row>
-    <row r="296" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G296"/>
     </row>
-    <row r="297" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G297"/>
     </row>
-    <row r="298" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G298"/>
     </row>
-    <row r="299" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G299"/>
     </row>
-    <row r="300" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G300"/>
     </row>
-    <row r="301" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G301"/>
     </row>
-    <row r="302" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G302"/>
     </row>
-    <row r="303" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G303"/>
     </row>
-    <row r="304" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G304"/>
     </row>
-    <row r="305" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G305"/>
     </row>
-    <row r="306" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G306"/>
     </row>
-    <row r="307" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G307"/>
     </row>
-    <row r="308" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G308"/>
     </row>
-    <row r="309" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G309"/>
     </row>
-    <row r="310" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G310"/>
     </row>
-    <row r="311" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G311"/>
     </row>
-    <row r="312" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G312"/>
     </row>
-    <row r="313" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G313"/>
     </row>
-    <row r="314" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G314"/>
     </row>
-    <row r="315" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G315"/>
     </row>
-    <row r="316" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G316"/>
     </row>
-    <row r="317" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G317"/>
     </row>
-    <row r="318" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G318"/>
     </row>
-    <row r="319" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G319"/>
     </row>
-    <row r="320" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G320"/>
     </row>
-    <row r="321" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G321"/>
     </row>
-    <row r="322" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G322"/>
     </row>
-    <row r="323" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G323"/>
     </row>
-    <row r="324" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G324"/>
     </row>
-    <row r="325" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G325"/>
     </row>
-    <row r="326" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G326"/>
     </row>
-    <row r="327" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G327"/>
     </row>
-    <row r="328" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G328"/>
     </row>
-    <row r="329" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G329"/>
     </row>
-    <row r="330" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G330"/>
     </row>
-    <row r="331" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G331"/>
     </row>
-    <row r="332" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G332"/>
     </row>
-    <row r="333" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G333"/>
     </row>
-    <row r="334" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G334"/>
     </row>
-    <row r="335" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G335"/>
     </row>
-    <row r="336" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G336"/>
     </row>
-    <row r="337" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G337"/>
     </row>
-    <row r="338" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G338"/>
     </row>
-    <row r="339" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G339"/>
     </row>
-    <row r="340" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G340"/>
     </row>
-    <row r="341" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G341"/>
     </row>
-    <row r="342" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G342"/>
     </row>
-    <row r="343" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G343"/>
     </row>
-    <row r="344" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G344"/>
     </row>
-    <row r="345" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G345"/>
     </row>
-    <row r="346" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G346"/>
     </row>
-    <row r="347" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G347"/>
     </row>
-    <row r="348" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G348"/>
     </row>
-    <row r="349" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G349"/>
     </row>
-    <row r="350" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G350"/>
     </row>
-    <row r="351" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G351"/>
     </row>
-    <row r="352" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G352"/>
     </row>
-    <row r="353" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G353"/>
     </row>
-    <row r="354" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G354"/>
     </row>
-    <row r="355" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G355"/>
     </row>
-    <row r="356" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G356"/>
     </row>
-    <row r="357" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G357"/>
     </row>
-    <row r="358" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G358"/>
     </row>
-    <row r="359" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G359"/>
     </row>
-    <row r="360" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G360"/>
     </row>
-    <row r="361" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G361"/>
     </row>
-    <row r="362" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G362"/>
     </row>
-    <row r="363" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G363"/>
     </row>
-    <row r="364" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G364"/>
     </row>
-    <row r="365" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G365"/>
     </row>
-    <row r="366" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G366"/>
     </row>
-    <row r="367" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G367"/>
     </row>
-    <row r="368" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G368"/>
     </row>
-    <row r="369" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="369" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G369"/>
     </row>
-    <row r="370" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G370"/>
     </row>
-    <row r="371" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="371" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G371"/>
     </row>
-    <row r="372" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="372" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G372"/>
     </row>
-    <row r="373" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G373"/>
     </row>
-    <row r="374" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G374"/>
     </row>
-    <row r="375" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G375"/>
     </row>
-    <row r="376" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G376"/>
     </row>
-    <row r="377" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G377"/>
     </row>
-    <row r="378" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G378"/>
     </row>
-    <row r="379" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G379"/>
     </row>
-    <row r="380" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G380"/>
     </row>
-    <row r="381" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G381"/>
     </row>
-    <row r="382" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G382"/>
     </row>
-    <row r="383" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G383"/>
     </row>
-    <row r="384" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G384"/>
     </row>
-    <row r="385" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G385"/>
     </row>
-    <row r="386" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G386"/>
     </row>
-    <row r="387" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G387"/>
     </row>
-    <row r="388" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G388"/>
     </row>
-    <row r="389" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G389"/>
     </row>
-    <row r="390" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G390"/>
     </row>
-    <row r="391" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G391"/>
     </row>
-    <row r="392" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="392" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G392"/>
     </row>
-    <row r="393" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G393"/>
     </row>
-    <row r="394" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G394"/>
     </row>
-    <row r="395" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G395"/>
     </row>
-    <row r="396" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G396"/>
     </row>
-    <row r="397" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G397"/>
     </row>
-    <row r="398" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G398"/>
     </row>
-    <row r="399" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G399"/>
     </row>
-    <row r="400" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G400"/>
     </row>
-    <row r="401" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G401"/>
     </row>
-    <row r="402" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G402"/>
     </row>
-    <row r="403" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G403"/>
     </row>
-    <row r="404" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G404"/>
     </row>
-    <row r="405" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G405"/>
     </row>
-    <row r="406" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G406"/>
     </row>
-    <row r="407" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G407"/>
     </row>
-    <row r="408" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G408"/>
     </row>
-    <row r="409" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G409"/>
     </row>
-    <row r="410" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G410"/>
     </row>
-    <row r="411" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G411"/>
     </row>
-    <row r="412" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="412" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G412"/>
     </row>
-    <row r="413" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G413"/>
     </row>
-    <row r="414" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="414" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G414"/>
     </row>
-    <row r="415" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G415"/>
     </row>
-    <row r="416" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G416"/>
     </row>
-    <row r="417" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G417"/>
     </row>
-    <row r="418" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="418" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G418"/>
     </row>
-    <row r="419" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G419"/>
     </row>
-    <row r="420" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G420"/>
     </row>
-    <row r="421" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G421"/>
     </row>
-    <row r="422" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G422"/>
     </row>
-    <row r="423" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G423"/>
     </row>
-    <row r="424" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G424"/>
     </row>
-    <row r="425" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="425" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G425"/>
     </row>
-    <row r="426" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="426" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G426"/>
     </row>
-    <row r="427" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G427"/>
     </row>
-    <row r="428" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="428" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G428"/>
     </row>
-    <row r="429" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="429" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G429"/>
     </row>
-    <row r="430" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="430" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G430"/>
     </row>
-    <row r="431" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G431"/>
     </row>
-    <row r="432" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="432" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G432"/>
     </row>
-    <row r="433" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G433"/>
     </row>
-    <row r="434" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G434"/>
     </row>
-    <row r="435" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="435" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G435"/>
     </row>
-    <row r="436" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G436"/>
     </row>
-    <row r="437" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G437"/>
     </row>
-    <row r="438" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="438" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G438"/>
     </row>
-    <row r="439" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="439" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G439"/>
     </row>
-    <row r="440" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="440" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G440"/>
     </row>
-    <row r="441" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="441" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G441"/>
     </row>
-    <row r="442" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G442"/>
     </row>
-    <row r="443" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="443" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G443"/>
     </row>
-    <row r="444" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="444" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G444"/>
     </row>
-    <row r="445" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="445" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G445"/>
     </row>
-    <row r="446" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="446" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G446"/>
     </row>
-    <row r="447" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="447" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G447"/>
     </row>
-    <row r="448" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="448" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G448"/>
     </row>
-    <row r="449" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="449" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G449"/>
     </row>
-    <row r="450" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="450" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G450"/>
     </row>
-    <row r="451" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G451"/>
     </row>
-    <row r="452" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G452"/>
     </row>
-    <row r="453" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G453"/>
     </row>
-    <row r="454" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="454" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G454"/>
     </row>
-    <row r="455" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="455" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G455"/>
     </row>
-    <row r="456" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="456" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G456"/>
     </row>
-    <row r="457" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="457" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G457"/>
     </row>
-    <row r="458" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="458" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G458"/>
     </row>
-    <row r="459" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="459" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G459"/>
     </row>
-    <row r="460" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="460" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G460"/>
     </row>
-    <row r="461" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="461" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G461"/>
     </row>
-    <row r="462" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="462" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G462"/>
     </row>
-    <row r="463" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G463"/>
     </row>
-    <row r="464" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G464"/>
     </row>
-    <row r="465" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G465"/>
     </row>
-    <row r="466" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G466"/>
     </row>
-    <row r="467" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="467" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G467"/>
     </row>
-    <row r="468" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="468" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G468"/>
     </row>
-    <row r="469" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="469" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G469"/>
     </row>
-    <row r="470" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G470"/>
     </row>
-    <row r="471" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G471"/>
     </row>
-    <row r="472" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G472"/>
     </row>
-    <row r="473" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="473" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G473"/>
     </row>
-    <row r="474" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="474" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G474"/>
     </row>
-    <row r="475" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="475" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G475"/>
     </row>
-    <row r="476" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G476"/>
     </row>
-    <row r="477" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="477" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G477"/>
     </row>
-    <row r="478" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="478" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G478"/>
     </row>
-    <row r="479" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="479" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G479"/>
     </row>
-    <row r="480" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="480" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G480"/>
     </row>
-    <row r="481" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G481"/>
     </row>
-    <row r="482" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G482"/>
     </row>
-    <row r="483" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="483" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G483"/>
     </row>
-    <row r="484" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G484"/>
     </row>
-    <row r="485" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G485"/>
     </row>
-    <row r="486" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G486"/>
     </row>
-    <row r="487" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="487" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G487"/>
     </row>
-    <row r="488" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="488" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G488"/>
     </row>
-    <row r="489" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G489"/>
     </row>
-    <row r="490" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="490" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G490"/>
     </row>
-    <row r="491" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G491"/>
     </row>
-    <row r="492" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G492"/>
     </row>
-    <row r="493" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G493"/>
     </row>
-    <row r="494" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G494"/>
     </row>
-    <row r="495" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G495"/>
     </row>
-    <row r="496" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G496"/>
     </row>
-    <row r="497" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G497"/>
     </row>
-    <row r="498" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G498"/>
     </row>
-    <row r="499" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G499"/>
     </row>
-    <row r="500" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G500"/>
     </row>
-    <row r="501" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G501"/>
     </row>
-    <row r="502" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G502"/>
     </row>
-    <row r="503" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G503"/>
     </row>
-    <row r="504" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G504"/>
     </row>
-    <row r="505" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="505" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G505"/>
     </row>
-    <row r="506" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G506"/>
     </row>
-    <row r="507" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G507"/>
     </row>
-    <row r="508" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G508"/>
     </row>
-    <row r="509" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G509"/>
     </row>
-    <row r="510" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G510"/>
     </row>
-    <row r="511" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="511" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G511"/>
     </row>
-    <row r="512" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G512"/>
     </row>
-    <row r="513" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="513" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G513"/>
     </row>
-    <row r="514" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="514" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G514"/>
     </row>
-    <row r="515" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="515" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G515"/>
     </row>
-    <row r="516" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="516" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G516"/>
     </row>
-    <row r="517" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="517" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G517"/>
     </row>
-    <row r="518" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G518"/>
     </row>
-    <row r="519" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="519" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G519"/>
     </row>
-    <row r="520" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G520"/>
     </row>
-    <row r="521" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G521"/>
     </row>
-    <row r="522" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="522" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G522"/>
     </row>
-    <row r="523" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="523" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G523"/>
     </row>
-    <row r="524" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G524"/>
     </row>
-    <row r="525" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="525" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G525"/>
     </row>
-    <row r="526" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G526"/>
     </row>
-    <row r="527" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G527"/>
     </row>
-    <row r="528" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="528" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G528"/>
     </row>
-    <row r="529" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="529" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G529"/>
     </row>
-    <row r="530" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="530" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G530"/>
     </row>
-    <row r="531" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="531" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G531"/>
     </row>
-    <row r="532" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G532"/>
     </row>
-    <row r="533" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="533" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G533"/>
     </row>
-    <row r="534" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G534"/>
     </row>
-    <row r="535" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="535" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G535"/>
     </row>
-    <row r="536" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="536" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G536"/>
     </row>
-    <row r="537" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="537" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G537"/>
     </row>
-    <row r="538" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G538"/>
     </row>
-    <row r="539" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="539" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G539"/>
     </row>
-    <row r="540" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="540" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G540"/>
     </row>
-    <row r="541" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="541" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G541"/>
     </row>
-    <row r="542" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="542" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G542"/>
     </row>
-    <row r="543" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G543"/>
     </row>
-    <row r="544" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="544" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G544"/>
     </row>
-    <row r="545" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G545"/>
     </row>
-    <row r="546" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="546" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G546"/>
     </row>
-    <row r="547" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="547" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G547"/>
     </row>
-    <row r="548" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="548" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G548"/>
     </row>
-    <row r="549" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="549" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G549"/>
     </row>
-    <row r="550" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G550"/>
     </row>
-    <row r="551" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G551"/>
     </row>
-    <row r="552" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G552"/>
     </row>
-    <row r="553" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G553"/>
     </row>
-    <row r="554" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="554" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G554"/>
     </row>
-    <row r="555" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="555" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G555"/>
     </row>
-    <row r="556" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G556"/>
     </row>
-    <row r="557" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G557"/>
     </row>
-    <row r="558" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="558" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G558"/>
     </row>
-    <row r="559" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="559" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G559"/>
     </row>
-    <row r="560" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="560" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G560"/>
     </row>
-    <row r="561" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="561" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G561"/>
     </row>
-    <row r="562" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="562" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G562"/>
     </row>
-    <row r="563" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="563" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G563"/>
     </row>
-    <row r="564" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="564" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G564"/>
     </row>
-    <row r="565" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="565" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G565"/>
     </row>
-    <row r="566" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="566" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G566"/>
     </row>
-    <row r="567" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="567" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G567"/>
     </row>
-    <row r="568" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="568" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G568"/>
     </row>
-    <row r="569" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="569" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G569"/>
     </row>
-    <row r="570" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="570" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G570"/>
     </row>
-    <row r="571" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="571" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G571"/>
     </row>
-    <row r="572" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G572"/>
     </row>
-    <row r="573" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="573" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G573"/>
     </row>
-    <row r="574" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G574"/>
     </row>
-    <row r="575" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="575" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G575"/>
     </row>
-    <row r="576" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="576" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G576"/>
     </row>
-    <row r="577" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="577" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G577"/>
     </row>
-    <row r="578" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="578" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G578"/>
     </row>
-    <row r="579" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="579" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G579"/>
     </row>
-    <row r="580" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="580" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G580"/>
     </row>
-    <row r="581" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="581" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G581"/>
     </row>
-    <row r="582" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="582" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G582"/>
     </row>
-    <row r="583" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="583" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G583"/>
     </row>
-    <row r="584" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G584"/>
     </row>
-    <row r="585" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="585" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G585"/>
     </row>
-    <row r="586" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G586"/>
     </row>
-    <row r="587" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G587"/>
     </row>
-    <row r="588" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G588"/>
     </row>
-    <row r="589" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G589"/>
     </row>
-    <row r="590" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G590"/>
     </row>
-    <row r="591" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G591"/>
     </row>
-    <row r="592" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G592"/>
     </row>
-    <row r="593" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G593"/>
     </row>
-    <row r="594" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G594"/>
     </row>
-    <row r="595" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G595"/>
     </row>
-    <row r="596" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G596"/>
     </row>
-    <row r="597" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G597"/>
     </row>
-    <row r="598" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G598"/>
     </row>
-    <row r="599" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G599"/>
     </row>
-    <row r="600" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G600"/>
     </row>
-    <row r="601" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="601" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G601"/>
     </row>
-    <row r="602" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G602"/>
     </row>
-    <row r="603" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="603" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G603"/>
     </row>
-    <row r="604" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G604"/>
     </row>
-    <row r="605" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="605" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G605"/>
     </row>
-    <row r="606" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G606"/>
     </row>
-    <row r="607" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G607"/>
     </row>
-    <row r="608" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G608"/>
     </row>
-    <row r="609" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G609"/>
     </row>
-    <row r="610" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G610"/>
     </row>
-    <row r="611" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="611" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G611"/>
     </row>
-    <row r="612" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G612"/>
     </row>
-    <row r="613" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="613" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G613"/>
     </row>
-    <row r="614" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G614"/>
     </row>
-    <row r="615" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G615"/>
     </row>
-    <row r="616" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G616"/>
     </row>
-    <row r="617" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="617" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G617"/>
     </row>
-    <row r="618" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G618"/>
     </row>
-    <row r="619" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="619" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G619"/>
     </row>
-    <row r="620" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G620"/>
     </row>
-    <row r="621" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G621"/>
     </row>
-    <row r="622" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G622"/>
     </row>
-    <row r="623" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G623"/>
     </row>
-    <row r="624" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="624" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G624"/>
     </row>
-    <row r="625" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="625" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G625"/>
     </row>
-    <row r="626" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G626"/>
     </row>
-    <row r="627" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G627"/>
     </row>
-    <row r="628" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="628" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G628"/>
     </row>
-    <row r="629" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="629" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G629"/>
     </row>
-    <row r="630" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="630" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G630"/>
     </row>
-    <row r="631" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="631" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G631"/>
     </row>
-    <row r="632" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G632"/>
     </row>
-    <row r="633" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G633"/>
     </row>
-    <row r="634" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G634"/>
     </row>
-    <row r="635" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G635"/>
     </row>
-    <row r="636" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="636" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G636"/>
     </row>
-    <row r="637" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="637" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G637"/>
     </row>
-    <row r="638" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="638" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G638"/>
     </row>
-    <row r="639" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="639" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G639"/>
     </row>
-    <row r="640" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="640" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G640"/>
     </row>
-    <row r="641" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="641" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G641"/>
     </row>
-    <row r="642" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="642" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G642"/>
     </row>
-    <row r="643" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="643" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G643"/>
     </row>
-    <row r="644" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="644" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G644"/>
     </row>
-    <row r="645" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="645" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G645"/>
     </row>
-    <row r="646" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="646" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G646"/>
     </row>
-    <row r="647" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="647" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G647"/>
     </row>
-    <row r="648" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="648" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G648"/>
     </row>
-    <row r="649" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="649" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G649"/>
     </row>
-    <row r="650" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="650" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G650"/>
     </row>
-    <row r="651" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="651" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G651"/>
     </row>
-    <row r="652" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="652" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G652"/>
     </row>
-    <row r="653" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="653" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G653"/>
     </row>
-    <row r="654" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="654" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G654"/>
     </row>
-    <row r="655" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="655" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G655"/>
     </row>
-    <row r="656" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="656" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G656"/>
     </row>
-    <row r="657" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="657" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G657"/>
     </row>
-    <row r="658" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="658" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G658"/>
     </row>
-    <row r="659" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="659" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G659"/>
     </row>
-    <row r="660" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="660" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G660"/>
     </row>
-    <row r="661" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="661" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G661"/>
     </row>
-    <row r="662" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="662" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G662"/>
     </row>
-    <row r="663" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="663" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G663"/>
     </row>
-    <row r="664" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="664" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G664"/>
     </row>
-    <row r="665" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="665" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G665"/>
     </row>
-    <row r="666" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="666" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G666"/>
     </row>
-    <row r="667" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="667" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G667"/>
     </row>
-    <row r="668" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="668" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G668"/>
     </row>
-    <row r="669" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="669" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G669"/>
     </row>
-    <row r="670" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="670" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G670"/>
     </row>
-    <row r="671" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="671" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G671"/>
     </row>
-    <row r="672" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="672" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G672"/>
     </row>
-    <row r="673" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="673" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G673"/>
     </row>
-    <row r="674" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="674" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G674"/>
     </row>
-    <row r="675" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="675" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G675"/>
     </row>
-    <row r="676" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="676" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G676"/>
     </row>
-    <row r="677" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="677" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G677"/>
     </row>
-    <row r="678" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="678" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G678"/>
     </row>
-    <row r="679" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="679" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G679"/>
     </row>
-    <row r="680" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="680" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G680"/>
     </row>
-    <row r="681" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="681" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G681"/>
     </row>
-    <row r="682" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="682" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G682"/>
     </row>
-    <row r="683" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="683" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G683"/>
     </row>
-    <row r="684" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="684" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G684"/>
     </row>
-    <row r="685" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="685" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G685"/>
     </row>
-    <row r="686" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="686" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G686"/>
     </row>
-    <row r="687" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="687" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G687"/>
     </row>
-    <row r="688" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="688" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G688"/>
     </row>
-    <row r="689" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="689" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G689"/>
     </row>
-    <row r="690" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="690" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G690"/>
     </row>
-    <row r="691" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="691" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G691"/>
     </row>
-    <row r="692" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="692" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G692"/>
     </row>
-    <row r="693" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="693" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G693"/>
     </row>
-    <row r="694" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="694" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G694"/>
     </row>
-    <row r="695" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="695" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G695"/>
     </row>
-    <row r="696" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="696" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G696"/>
     </row>
-    <row r="697" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="697" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G697"/>
     </row>
-    <row r="698" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="698" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G698"/>
     </row>
-    <row r="699" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="699" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G699"/>
     </row>
-    <row r="700" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="700" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G700"/>
     </row>
-    <row r="701" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="701" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G701"/>
     </row>
-    <row r="702" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="702" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G702"/>
     </row>
-    <row r="703" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="703" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G703"/>
     </row>
-    <row r="704" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="704" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G704"/>
     </row>
-    <row r="705" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="705" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G705"/>
     </row>
-    <row r="706" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="706" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G706"/>
     </row>
-    <row r="707" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="707" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G707"/>
     </row>
-    <row r="708" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="708" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G708"/>
     </row>
-    <row r="709" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="709" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G709"/>
     </row>
-    <row r="710" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="710" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G710"/>
     </row>
-    <row r="711" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="711" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G711"/>
     </row>
-    <row r="712" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="712" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G712"/>
     </row>
-    <row r="713" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="713" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G713"/>
     </row>
-    <row r="714" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="714" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G714"/>
     </row>
-    <row r="715" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="715" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G715"/>
     </row>
-    <row r="716" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="716" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G716"/>
     </row>
-    <row r="717" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="717" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G717"/>
     </row>
-    <row r="718" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="718" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G718"/>
     </row>
-    <row r="719" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="719" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G719"/>
     </row>
-    <row r="720" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="720" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G720"/>
     </row>
-    <row r="721" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="721" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G721"/>
     </row>
-    <row r="722" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="722" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G722"/>
     </row>
-    <row r="723" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="723" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G723"/>
     </row>
-    <row r="724" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="724" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G724"/>
     </row>
-    <row r="725" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="725" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G725"/>
     </row>
-    <row r="726" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="726" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G726"/>
     </row>
-    <row r="727" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="727" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G727"/>
     </row>
-    <row r="728" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="728" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G728"/>
     </row>
-    <row r="729" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="729" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G729"/>
     </row>
-    <row r="730" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="730" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G730"/>
     </row>
-    <row r="731" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="731" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G731"/>
     </row>
-    <row r="732" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="732" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G732"/>
     </row>
-    <row r="733" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="733" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G733"/>
     </row>
-    <row r="734" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="734" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G734"/>
     </row>
-    <row r="735" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="735" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G735"/>
     </row>
-    <row r="736" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="736" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G736"/>
     </row>
-    <row r="737" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="737" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G737"/>
     </row>
-    <row r="738" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="738" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G738"/>
     </row>
-    <row r="739" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="739" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G739"/>
     </row>
-    <row r="740" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="740" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G740"/>
     </row>
-    <row r="741" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="741" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G741"/>
     </row>
-    <row r="742" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="742" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G742"/>
     </row>
-    <row r="743" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="743" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G743"/>
     </row>
-    <row r="744" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="744" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G744"/>
     </row>
-    <row r="745" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="745" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G745"/>
     </row>
-    <row r="746" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="746" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G746"/>
     </row>
-    <row r="747" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="747" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G747"/>
     </row>
-    <row r="748" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="748" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G748"/>
     </row>
-    <row r="749" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="749" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G749"/>
     </row>
-    <row r="750" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="750" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G750"/>
     </row>
-    <row r="751" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="751" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G751"/>
     </row>
-    <row r="752" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="752" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G752"/>
     </row>
-    <row r="753" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="753" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G753"/>
     </row>
-    <row r="754" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="754" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G754"/>
     </row>
-    <row r="755" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="755" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G755"/>
     </row>
-    <row r="756" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="756" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G756"/>
     </row>
-    <row r="757" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="757" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G757"/>
     </row>
-    <row r="758" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="758" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G758"/>
     </row>
-    <row r="759" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="759" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G759"/>
     </row>
-    <row r="760" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="760" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G760"/>
     </row>
-    <row r="761" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="761" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G761"/>
     </row>
-    <row r="762" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="762" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G762"/>
     </row>
-    <row r="763" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="763" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G763"/>
     </row>
-    <row r="764" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="764" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G764"/>
     </row>
-    <row r="765" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="765" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G765"/>
     </row>
-    <row r="766" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="766" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G766"/>
     </row>
-    <row r="767" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="767" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G767"/>
     </row>
-    <row r="768" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="768" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G768"/>
     </row>
-    <row r="769" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="769" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G769"/>
     </row>
-    <row r="770" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="770" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G770"/>
     </row>
-    <row r="771" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G771"/>
     </row>
-    <row r="772" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="772" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G772"/>
     </row>
-    <row r="773" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="773" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G773"/>
     </row>
-    <row r="774" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G774"/>
     </row>
-    <row r="775" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="775" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G775"/>
     </row>
-    <row r="776" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="776" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G776"/>
     </row>
-    <row r="777" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="777" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G777"/>
     </row>
-    <row r="778" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="778" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G778"/>
     </row>
-    <row r="779" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="779" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G779"/>
     </row>
-    <row r="780" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="780" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G780"/>
     </row>
-    <row r="781" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="781" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G781"/>
     </row>
-    <row r="782" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="782" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G782"/>
     </row>
-    <row r="783" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="783" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G783"/>
     </row>
-    <row r="784" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="784" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G784"/>
     </row>
-    <row r="785" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="785" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G785"/>
     </row>
-    <row r="786" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="786" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G786"/>
     </row>
-    <row r="787" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="787" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G787"/>
     </row>
-    <row r="788" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="788" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G788"/>
     </row>
-    <row r="789" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="789" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G789"/>
     </row>
-    <row r="790" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="790" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G790"/>
     </row>
-    <row r="791" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="791" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G791"/>
     </row>
-    <row r="792" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="792" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G792"/>
     </row>
-    <row r="793" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="793" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G793"/>
     </row>
-    <row r="794" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="794" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G794"/>
     </row>
-    <row r="795" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="795" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G795"/>
     </row>
-    <row r="796" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="796" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G796"/>
     </row>
-    <row r="797" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="797" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G797"/>
     </row>
-    <row r="798" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="798" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G798"/>
     </row>
-    <row r="799" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="799" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G799"/>
     </row>
-    <row r="800" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="800" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G800"/>
     </row>
-    <row r="801" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="801" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G801"/>
     </row>
-    <row r="802" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G802"/>
     </row>
-    <row r="803" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="803" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G803"/>
     </row>
-    <row r="804" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="804" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G804"/>
     </row>
-    <row r="805" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="805" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G805"/>
     </row>
-    <row r="806" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="806" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G806"/>
     </row>
-    <row r="807" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="807" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G807"/>
     </row>
-    <row r="808" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="808" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G808"/>
     </row>
-    <row r="809" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G809"/>
     </row>
-    <row r="810" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="810" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G810"/>
     </row>
-    <row r="811" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="811" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G811"/>
     </row>
-    <row r="812" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="812" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G812"/>
     </row>
-    <row r="813" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="813" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G813"/>
     </row>
-    <row r="814" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="814" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G814"/>
     </row>
-    <row r="815" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="815" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G815"/>
     </row>
-    <row r="816" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="816" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G816"/>
     </row>
-    <row r="817" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="817" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G817"/>
     </row>
-    <row r="818" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="818" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G818"/>
     </row>
-    <row r="819" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="819" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G819"/>
     </row>
-    <row r="820" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="820" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G820"/>
     </row>
-    <row r="821" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="821" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G821"/>
     </row>
-    <row r="822" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="822" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G822"/>
     </row>
-    <row r="823" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="823" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G823"/>
     </row>
-    <row r="824" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="824" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G824"/>
     </row>
-    <row r="825" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="825" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G825"/>
     </row>
-    <row r="826" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="826" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G826"/>
     </row>
-    <row r="827" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="827" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G827"/>
     </row>
-    <row r="828" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="828" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G828"/>
     </row>
-    <row r="829" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="829" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G829"/>
     </row>
-    <row r="830" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="830" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G830"/>
     </row>
-    <row r="831" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="831" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G831"/>
     </row>
-    <row r="832" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="832" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G832"/>
     </row>
-    <row r="833" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="833" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G833"/>
     </row>
-    <row r="834" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="834" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G834"/>
     </row>
-    <row r="835" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="835" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G835"/>
     </row>
-    <row r="836" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="836" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G836"/>
     </row>
-    <row r="837" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="837" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G837"/>
     </row>
-    <row r="838" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="838" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G838"/>
     </row>
-    <row r="839" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="839" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G839"/>
     </row>
-    <row r="840" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="840" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G840"/>
     </row>
-    <row r="841" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="841" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G841"/>
     </row>
-    <row r="842" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="842" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G842"/>
     </row>
-    <row r="843" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="843" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G843"/>
     </row>
-    <row r="844" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="844" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G844"/>
     </row>
-    <row r="845" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="845" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G845"/>
     </row>
-    <row r="846" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="846" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G846"/>
     </row>
-    <row r="847" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="847" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G847"/>
     </row>
-    <row r="848" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="848" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G848"/>
     </row>
-    <row r="849" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="849" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G849"/>
     </row>
-    <row r="850" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="850" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G850"/>
     </row>
-    <row r="851" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="851" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G851"/>
     </row>
-    <row r="852" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="852" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G852"/>
     </row>
-    <row r="853" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="853" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G853"/>
     </row>
-    <row r="854" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="854" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G854"/>
     </row>
-    <row r="855" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="855" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G855"/>
     </row>
-    <row r="856" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="856" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G856"/>
     </row>
-    <row r="857" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="857" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G857"/>
     </row>
-    <row r="858" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="858" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G858"/>
     </row>
-    <row r="859" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="859" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G859"/>
     </row>
-    <row r="860" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="860" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G860"/>
     </row>
-    <row r="861" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="861" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G861"/>
     </row>
-    <row r="862" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="862" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G862"/>
     </row>
-    <row r="863" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="863" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G863"/>
     </row>
-    <row r="864" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="864" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G864"/>
     </row>
-    <row r="865" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="865" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G865"/>
     </row>
-    <row r="866" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="866" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G866"/>
     </row>
-    <row r="867" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="867" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G867"/>
     </row>
-    <row r="868" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="868" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G868"/>
     </row>
-    <row r="869" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="869" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G869"/>
     </row>
-    <row r="870" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="870" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G870"/>
     </row>
-    <row r="871" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="871" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G871"/>
     </row>
-    <row r="872" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="872" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G872"/>
     </row>
-    <row r="873" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="873" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G873"/>
     </row>
-    <row r="874" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="874" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G874"/>
     </row>
-    <row r="875" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="875" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G875"/>
     </row>
-    <row r="876" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="876" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G876"/>
     </row>
-    <row r="877" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="877" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G877"/>
     </row>
-    <row r="878" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="878" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G878"/>
     </row>
-    <row r="879" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="879" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G879"/>
     </row>
-    <row r="880" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="880" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G880"/>
     </row>
-    <row r="881" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="881" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G881"/>
     </row>
-    <row r="882" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="882" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G882"/>
     </row>
-    <row r="883" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="883" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G883"/>
     </row>
-    <row r="884" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="884" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G884"/>
     </row>
-    <row r="885" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="885" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G885"/>
     </row>
-    <row r="886" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="886" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G886"/>
     </row>
-    <row r="887" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="887" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G887"/>
     </row>
-    <row r="888" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="888" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G888"/>
     </row>
-    <row r="889" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="889" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G889"/>
     </row>
-    <row r="890" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="890" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G890"/>
     </row>
-    <row r="891" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="891" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G891"/>
     </row>
-    <row r="892" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="892" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G892"/>
     </row>
-    <row r="893" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="893" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G893"/>
     </row>
-    <row r="894" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="894" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G894"/>
     </row>
-    <row r="895" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="895" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G895"/>
     </row>
-    <row r="896" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="896" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G896"/>
     </row>
-    <row r="897" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="897" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G897"/>
     </row>
-    <row r="898" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="898" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G898"/>
     </row>
-    <row r="899" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="899" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G899"/>
     </row>
-    <row r="900" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="900" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G900"/>
     </row>
-    <row r="901" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="901" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G901"/>
     </row>
-    <row r="902" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="902" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G902"/>
     </row>
-    <row r="903" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="903" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G903"/>
     </row>
-    <row r="904" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="904" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G904"/>
     </row>
-    <row r="905" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="905" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G905"/>
     </row>
-    <row r="906" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="906" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G906"/>
     </row>
-    <row r="907" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="907" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G907"/>
     </row>
-    <row r="908" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="908" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G908"/>
     </row>
-    <row r="909" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="909" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G909"/>
     </row>
-    <row r="910" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="910" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G910"/>
     </row>
-    <row r="911" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="911" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G911"/>
     </row>
-    <row r="912" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="912" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G912"/>
     </row>
-    <row r="913" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="913" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G913"/>
     </row>
-    <row r="914" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="914" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G914"/>
     </row>
-    <row r="915" spans="7:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="915" spans="7:7" ht="15" x14ac:dyDescent="0.25">
       <c r="G915"/>
     </row>
   </sheetData>
@@ -11309,13 +11326,13 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -11324,7 +11341,7 @@
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -11333,7 +11350,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -11342,7 +11359,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -11352,7 +11369,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -11361,7 +11378,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -11370,7 +11387,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -11379,13 +11396,13 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -11426,7 +11443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -11467,7 +11484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="str">
         <f>B1</f>
         <v>Energy per hours RU1</v>
@@ -11513,11 +11530,11 @@
       <c r="N11" s="8"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -11526,7 +11543,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -11535,7 +11552,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -11544,7 +11561,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -11554,7 +11571,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>226</v>
       </c>
@@ -11563,7 +11580,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -11571,7 +11588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -11580,13 +11597,13 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
@@ -11627,7 +11644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -11668,7 +11685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="str">
         <f>B13</f>
         <v>Energy per hours RU2</v>
@@ -11714,7 +11731,7 @@
       <c r="N23" s="8"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -11732,18 +11749,18 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.54296875" customWidth="1"/>
-    <col min="2" max="2" width="85.453125" customWidth="1"/>
-    <col min="3" max="3" width="114.7265625" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="85.42578125" customWidth="1"/>
+    <col min="3" max="3" width="114.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -11751,7 +11768,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -11762,7 +11779,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -11773,7 +11790,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>170</v>
       </c>
@@ -11784,10 +11801,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="33"/>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -11798,7 +11815,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -11810,10 +11827,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="33"/>
     </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -11824,7 +11841,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -11835,21 +11852,21 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="33"/>
     </row>
-    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -11883,16 +11900,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" customWidth="1"/>
-    <col min="3" max="3" width="62.54296875" customWidth="1"/>
-    <col min="4" max="4" width="69.81640625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="84.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="69.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="84.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -11900,7 +11917,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>169</v>
       </c>
@@ -11920,7 +11937,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>154</v>
       </c>
@@ -11937,7 +11954,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>155</v>
       </c>
@@ -11954,7 +11971,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>156</v>
       </c>
@@ -11971,7 +11988,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>157</v>
       </c>
@@ -11988,7 +12005,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>158</v>
       </c>
@@ -12005,7 +12022,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>159</v>
       </c>
@@ -12022,7 +12039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>160</v>
       </c>
@@ -12039,7 +12056,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>161</v>
       </c>
@@ -12056,7 +12073,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>162</v>
       </c>
@@ -12073,7 +12090,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>163</v>
       </c>
@@ -12090,7 +12107,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>164</v>
       </c>
@@ -12107,7 +12124,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>165</v>
       </c>
@@ -12124,7 +12141,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>166</v>
       </c>
@@ -12141,7 +12158,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>167</v>
       </c>
@@ -12158,7 +12175,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>168</v>
       </c>
@@ -12175,7 +12192,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>175</v>
       </c>
@@ -12200,19 +12217,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA797D85-FDD2-499E-9F95-1629A68BBB9A}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="138.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>109</v>
       </c>
@@ -12220,7 +12237,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>193</v>
       </c>
@@ -12231,10 +12248,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="28"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -12242,10 +12259,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -12256,7 +12273,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -12267,10 +12284,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="33"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>202</v>
       </c>
@@ -12281,7 +12298,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -12292,7 +12309,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -12303,37 +12320,53 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C11" s="33"/>
-    </row>
-    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="33"/>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B14" s="36">
         <v>1000</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C14" s="33" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C13" s="33"/>
-    </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="33"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B16" s="37">
         <v>14</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C16" s="33" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B10" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12344,42 +12377,43 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D3A475-1715-4FF1-B0D3-38A761B0E89D}">
   <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.26953125" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.453125" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -12388,7 +12422,7 @@
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="39" t="s">
         <v>196</v>
@@ -12408,8 +12442,11 @@
       <c r="G4" s="39" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>15</v>
       </c>
@@ -12426,13 +12463,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="24">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G5" s="24">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>16</v>
       </c>
@@ -12449,10 +12489,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="24">
         <v>8</v>
+      </c>
+      <c r="H6" s="24">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -12470,46 +12513,46 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="32.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="39" t="s">
         <v>15</v>
@@ -12518,7 +12561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>194</v>
       </c>
@@ -12526,15 +12569,15 @@
         <v>1</v>
       </c>
       <c r="C5" s="26">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>195</v>
       </c>
       <c r="B6" s="26">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C6" s="26">
         <v>1</v>
@@ -12556,548 +12599,548 @@
       <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="174" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="47"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="47"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="47"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="47"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="47"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="47"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="47"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="47"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="47"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="47"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="47"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="47"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="47"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="47"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="47"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="47"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="47"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="47"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="47"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="47"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="47"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="47"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="47"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="47"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="47"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="47"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="47"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="47"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="47"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="47"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="47"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="47"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="47"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="47"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="47"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="47"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="47"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="47"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="47"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="47"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="47"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="47"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="47"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="47"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="47"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="47"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="47"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="47"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="47"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="47"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="47"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="47"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="47"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="47"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="47"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="47"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="47"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="47"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="47"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="47"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="47"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="47"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="47"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="47"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="47"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="47"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="47"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="47"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="47"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="47"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="47"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="47"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="47"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="47"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="47"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="47"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="47"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="47"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="47"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="47"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="47"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="47"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="47"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="47"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="47"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="47"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="47"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="47"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="47"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="47"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="47"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="47"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="47"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="47"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="47"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="47"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="47"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="47"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="47"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="47"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="47"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="47"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="47"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="47"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="47"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="47"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="47"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="47"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="47"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="47"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="47"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="47"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="47"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="47"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="47"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="47"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="47"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="47"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="47"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="47"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="47"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="47"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="47"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="47"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="47"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="47"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="47"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="47"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="47"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="47"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="47"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="47"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="47"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="47"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="47"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="47"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="47"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="47"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="47"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="47"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="47"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="47"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="47"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="47"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="47"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="47"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="47"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="47"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="47"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="47"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="47"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="47"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="50"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="50"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="50"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="50"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="50"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="50"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="50"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="50"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="50"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="50"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="50"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="50"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="50"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="50"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="50"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="50"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="50"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="50"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="50"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="50"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="50"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="50"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="50"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="50"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="50"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="50"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="50"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="50"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="50"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="50"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="50"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="50"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="50"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="50"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="50"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="50"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="50"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="50"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="50"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="50"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="50"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="50"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="50"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="50"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="50"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="50"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="50"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="50"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="50"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="50"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="50"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="50"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="50"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="50"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="50"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="50"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="50"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="50"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="50"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="50"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="50"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="50"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="50"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="50"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="50"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="50"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="50"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="50"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="50"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="50"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="50"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="50"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="50"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="50"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="50"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="50"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="50"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="50"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="50"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="50"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="50"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="50"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="50"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="50"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="50"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="50"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="50"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="50"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="50"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="50"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="50"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="50"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="50"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="50"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="50"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="50"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="50"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="50"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="50"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="50"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="50"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="50"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="50"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="50"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="50"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="50"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="50"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="50"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="50"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="50"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="50"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="50"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="50"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="50"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="50"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="50"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="50"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="50"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="50"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
     </row>
   </sheetData>

--- a/Input/Input - Example.xlsx
+++ b/Input/Input - Example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\MERCE\Programmation\pelca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baudais\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21969863-C14A-4D59-AF5F-D9265BF7E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3CA58-4F1E-4E20-B34F-FAB667093259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="2220" windowWidth="21600" windowHeight="11295" firstSheet="3" activeTab="5" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
+    <workbookView xWindow="-8775" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{A54E5BBE-0316-4F70-98D1-938B1B12E1AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory - Manufacturing" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="292">
   <si>
     <t>Random failure</t>
   </si>
@@ -1037,6 +1037,15 @@
   <si>
     <t>The tool models the failure of a Replacement Unit (RU) across three life stages: the 'Early' phase (associated with design or manufacturing issues that were not adequately controlled), the 'Random' phase (where failures occur randomly), and the 'Wear-out' phase (resulting from wear and tear). This sheet allows you to specify the parameters necessary to create failure functions (probability distributions) for the RUs. The probability distribution used to model failures is Weibull, characterized by two parameters: β (the shape parameter) and σ (the scale parameter - in years). Failures during the early phase have β &lt; 1, random failures have β = 1, and wear-out failures have β &gt; 1.
 Maintenance (year) defines the maintenance time for each RU.</t>
+  </si>
+  <si>
+    <t>Staircase result filename</t>
+  </si>
+  <si>
+    <t>Example_staircase.xlsx</t>
+  </si>
+  <si>
+    <t>The Excel file of the LCA staircase at service life.</t>
   </si>
 </sst>
 </file>
@@ -11750,7 +11759,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12217,15 +12226,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA797D85-FDD2-499E-9F95-1629A68BBB9A}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="138.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12237,136 +12247,150 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="36">
-        <v>2</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B4" s="36">
+        <v>2</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="28"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="36">
-        <v>30</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="36">
-        <v>666</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>215</v>
-      </c>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="36">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="33"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="36">
+        <v>666</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="36">
+        <v>1</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>217</v>
-      </c>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="33" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B14" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C14" s="29" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="33"/>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="36">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="33"/>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="33"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B18" s="37">
         <v>14</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C18" s="33" t="s">
         <v>218</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B14" xr:uid="{60ACCCA7-D116-4829-9F7B-3966522E3918}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12379,7 +12403,7 @@
   <sheetPr codeName="Feuil6"/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
